--- a/artfynd/A 45719-2021.xlsx
+++ b/artfynd/A 45719-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98289819</v>
+        <v>98289796</v>
       </c>
       <c r="B2" t="n">
-        <v>8377</v>
+        <v>89392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>106545</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>516781.9761794442</v>
+        <v>516814.3514476551</v>
       </c>
       <c r="R2" t="n">
-        <v>6677410.540129327</v>
+        <v>6677511.023389624</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -774,7 +774,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Gnagspår   FLD0081 (Calluna AB) NVI</t>
+          <t>FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98289716</v>
+        <v>98289788</v>
       </c>
       <c r="B3" t="n">
-        <v>93056</v>
+        <v>5135</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,26 +817,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2813</v>
+        <v>105930</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516941.1666516176</v>
+        <v>516791.4681242868</v>
       </c>
       <c r="R3" t="n">
-        <v>6677522.536262212</v>
+        <v>6677510.421505215</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -875,7 +875,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>2021-11-03</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>2021-11-03</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>FLD0081 (Calluna AB) NVI</t>
+          <t>Gnagspår FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -915,17 +915,17 @@
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Frida Nettelbladt</t>
+          <t>Via Josefina Pehrson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98289689</v>
+        <v>98289844</v>
       </c>
       <c r="B4" t="n">
-        <v>89356</v>
+        <v>5113</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,26 +938,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5447</v>
+        <v>100526</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516804.1114452771</v>
+        <v>516791.4681242868</v>
       </c>
       <c r="R4" t="n">
-        <v>6677465.776451503</v>
+        <v>6677510.421505215</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Riklig på flera klena granlågor  FLD0081 (Calluna AB) NVI</t>
+          <t>Gnagspår   FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Frida Nettelbladt</t>
+          <t>Via Josefina Pehrson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98289777</v>
+        <v>98289806</v>
       </c>
       <c r="B5" t="n">
-        <v>5113</v>
+        <v>95519</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1059,26 +1059,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100526</v>
+        <v>221945</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1087,10 +1087,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>516991.4707314063</v>
+        <v>516814.4085636649</v>
       </c>
       <c r="R5" t="n">
-        <v>6677510.8489863</v>
+        <v>6677498.606166115</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>2021-11-03</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>2021-11-03</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Gnagspår   FLD0081 (Calluna AB) NVI</t>
+          <t>FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1157,17 +1157,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Frida Nettelbladt</t>
+          <t>Via Josefina Pehrson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98289796</v>
+        <v>98289819</v>
       </c>
       <c r="B6" t="n">
-        <v>89392</v>
+        <v>8377</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1176,30 +1176,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>106545</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>516814.3514476551</v>
+        <v>516781.9761794442</v>
       </c>
       <c r="R6" t="n">
-        <v>6677511.023389624</v>
+        <v>6677410.540129327</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>FLD0081 (Calluna AB) NVI</t>
+          <t>Gnagspår   FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1285,10 +1285,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98289792</v>
+        <v>98289716</v>
       </c>
       <c r="B7" t="n">
-        <v>89356</v>
+        <v>93056</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1301,21 +1301,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5447</v>
+        <v>2813</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>516782.0309047377</v>
+        <v>516941.1666516176</v>
       </c>
       <c r="R7" t="n">
-        <v>6677398.619269138</v>
+        <v>6677522.536262212</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-11-03</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-11-03</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1399,17 +1399,17 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Via Josefina Pehrson</t>
+          <t>Frida Nettelbladt</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>98289707</v>
+        <v>98289689</v>
       </c>
       <c r="B8" t="n">
-        <v>56540</v>
+        <v>89356</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1418,25 +1418,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>103021</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1450,10 +1450,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>516858.647990866</v>
+        <v>516804.1114452771</v>
       </c>
       <c r="R8" t="n">
-        <v>6677399.468513021</v>
+        <v>6677465.776451503</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Lockläte   FLD0081 (Calluna AB) NVI</t>
+          <t>Riklig på flera klena granlågor  FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1527,10 +1527,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98289712</v>
+        <v>98289777</v>
       </c>
       <c r="B9" t="n">
-        <v>89338</v>
+        <v>5113</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1539,30 +1539,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>112</v>
+        <v>100526</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1571,10 +1571,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>516925.1979863503</v>
+        <v>516991.4707314063</v>
       </c>
       <c r="R9" t="n">
-        <v>6677532.892917851</v>
+        <v>6677510.8489863</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-11-03</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-11-03</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Mycket riklig på murken granlåga  FLD0081 (Calluna AB) NVI</t>
+          <t>Gnagspår   FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1648,10 +1648,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>98289729</v>
+        <v>98289792</v>
       </c>
       <c r="B10" t="n">
-        <v>95519</v>
+        <v>89356</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1664,26 +1664,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221945</v>
+        <v>5447</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1692,10 +1692,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>516881.4125011759</v>
+        <v>516782.0309047377</v>
       </c>
       <c r="R10" t="n">
-        <v>6677533.683840181</v>
+        <v>6677398.619269138</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1762,17 +1762,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Frida Nettelbladt</t>
+          <t>Via Josefina Pehrson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>98289700</v>
+        <v>98289707</v>
       </c>
       <c r="B11" t="n">
-        <v>95572</v>
+        <v>56540</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1781,30 +1781,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221063</v>
+        <v>103021</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådfräken</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Equisetum scirpoides</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Michx.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1813,10 +1813,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>516918.5211616535</v>
+        <v>516858.647990866</v>
       </c>
       <c r="R11" t="n">
-        <v>6677578.061049111</v>
+        <v>6677399.468513021</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>FLD0081 (Calluna AB) NVI</t>
+          <t>Lockläte   FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1890,10 +1890,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>98289706</v>
+        <v>98289712</v>
       </c>
       <c r="B12" t="n">
-        <v>56540</v>
+        <v>89338</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1906,21 +1906,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>103021</v>
+        <v>112</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1934,10 +1934,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>516952.9042234386</v>
+        <v>516925.1979863503</v>
       </c>
       <c r="R12" t="n">
-        <v>6677566.299775328</v>
+        <v>6677532.892917851</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Lockläte   FLD0081 (Calluna AB) NVI</t>
+          <t>Mycket riklig på murken granlåga  FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2011,10 +2011,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>98289697</v>
+        <v>98289729</v>
       </c>
       <c r="B13" t="n">
-        <v>89392</v>
+        <v>95519</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2023,30 +2023,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>221945</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>516809.0866382779</v>
+        <v>516881.4125011759</v>
       </c>
       <c r="R13" t="n">
-        <v>6677465.799325188</v>
+        <v>6677533.683840181</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Riklig på flera klena granlågor  FLD0081 (Calluna AB) NVI</t>
+          <t>FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2132,10 +2132,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>98289788</v>
+        <v>98289700</v>
       </c>
       <c r="B14" t="n">
-        <v>5135</v>
+        <v>95572</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2148,26 +2148,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>105930</v>
+        <v>221063</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Trådfräken</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Equisetum scirpoides</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Michx.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>516791.4681242868</v>
+        <v>516918.5211616535</v>
       </c>
       <c r="R14" t="n">
-        <v>6677510.421505215</v>
+        <v>6677578.061049111</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Gnagspår FLD0081 (Calluna AB) NVI</t>
+          <t>FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2246,17 +2246,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Via Josefina Pehrson</t>
+          <t>Frida Nettelbladt</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>98289844</v>
+        <v>98289706</v>
       </c>
       <c r="B15" t="n">
-        <v>5113</v>
+        <v>56540</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2265,30 +2265,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100526</v>
+        <v>103021</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>516791.4681242868</v>
+        <v>516952.9042234386</v>
       </c>
       <c r="R15" t="n">
-        <v>6677510.421505215</v>
+        <v>6677566.299775328</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Gnagspår   FLD0081 (Calluna AB) NVI</t>
+          <t>Lockläte   FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Via Josefina Pehrson</t>
+          <t>Frida Nettelbladt</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>98289806</v>
+        <v>98289697</v>
       </c>
       <c r="B16" t="n">
-        <v>95519</v>
+        <v>89392</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2386,30 +2386,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221945</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>516814.4085636649</v>
+        <v>516809.0866382779</v>
       </c>
       <c r="R16" t="n">
-        <v>6677498.606166115</v>
+        <v>6677465.799325188</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>FLD0081 (Calluna AB) NVI</t>
+          <t>Riklig på flera klena granlågor  FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Via Josefina Pehrson</t>
+          <t>Frida Nettelbladt</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>

--- a/artfynd/A 45719-2021.xlsx
+++ b/artfynd/A 45719-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98289796</v>
+        <v>98289819</v>
       </c>
       <c r="B2" t="n">
-        <v>89392</v>
+        <v>8377</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,30 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>106545</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Mindre märgborre</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Tomicus minor</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Hartig, 1834)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -724,10 +724,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>516814.3514476551</v>
+        <v>516781.9761794442</v>
       </c>
       <c r="R2" t="n">
-        <v>6677511.023389624</v>
+        <v>6677410.540129327</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -774,7 +774,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>FLD0081 (Calluna AB) NVI</t>
+          <t>Gnagspår   FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>98289788</v>
+        <v>98289716</v>
       </c>
       <c r="B3" t="n">
-        <v>5135</v>
+        <v>93056</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,26 +817,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>105930</v>
+        <v>2813</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Skogshakmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Rhytidiadelphus subpinnatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lindb.) T.J.Kop.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516791.4681242868</v>
+        <v>516941.1666516176</v>
       </c>
       <c r="R3" t="n">
-        <v>6677510.421505215</v>
+        <v>6677522.536262212</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -875,7 +875,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-11-03</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -885,7 +885,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-11-03</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Gnagspår FLD0081 (Calluna AB) NVI</t>
+          <t>FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -915,17 +915,17 @@
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Via Josefina Pehrson</t>
+          <t>Frida Nettelbladt</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>98289844</v>
+        <v>98289689</v>
       </c>
       <c r="B4" t="n">
-        <v>5113</v>
+        <v>89356</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,26 +938,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100526</v>
+        <v>5447</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -966,10 +966,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516791.4681242868</v>
+        <v>516804.1114452771</v>
       </c>
       <c r="R4" t="n">
-        <v>6677510.421505215</v>
+        <v>6677465.776451503</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1016,7 +1016,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Gnagspår   FLD0081 (Calluna AB) NVI</t>
+          <t>Riklig på flera klena granlågor  FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1036,17 +1036,17 @@
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Via Josefina Pehrson</t>
+          <t>Frida Nettelbladt</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98289806</v>
+        <v>98289777</v>
       </c>
       <c r="B5" t="n">
-        <v>95519</v>
+        <v>5113</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1059,26 +1059,26 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221945</v>
+        <v>100526</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1087,10 +1087,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>516814.4085636649</v>
+        <v>516991.4707314063</v>
       </c>
       <c r="R5" t="n">
-        <v>6677498.606166115</v>
+        <v>6677510.8489863</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2021-11-03</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2021-11-03</t>
+          <t>2021-11-02</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>FLD0081 (Calluna AB) NVI</t>
+          <t>Gnagspår   FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1157,17 +1157,17 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Via Josefina Pehrson</t>
+          <t>Frida Nettelbladt</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98289819</v>
+        <v>98289796</v>
       </c>
       <c r="B6" t="n">
-        <v>8377</v>
+        <v>89392</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1176,30 +1176,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>106545</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Mindre märgborre</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Tomicus minor</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hartig, 1834)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1208,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>516781.9761794442</v>
+        <v>516814.3514476551</v>
       </c>
       <c r="R6" t="n">
-        <v>6677410.540129327</v>
+        <v>6677511.023389624</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Gnagspår   FLD0081 (Calluna AB) NVI</t>
+          <t>FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1285,10 +1285,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>98289716</v>
+        <v>98289792</v>
       </c>
       <c r="B7" t="n">
-        <v>93056</v>
+        <v>89356</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1301,21 +1301,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2813</v>
+        <v>5447</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skogshakmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rhytidiadelphus subpinnatus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Lindb.) T.J.Kop.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1329,10 +1329,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>516941.1666516176</v>
+        <v>516782.0309047377</v>
       </c>
       <c r="R7" t="n">
-        <v>6677522.536262212</v>
+        <v>6677398.619269138</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>2021-11-03</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>2021-11-03</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1399,17 +1399,17 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Frida Nettelbladt</t>
+          <t>Via Josefina Pehrson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>98289689</v>
+        <v>98289707</v>
       </c>
       <c r="B8" t="n">
-        <v>89356</v>
+        <v>56540</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1418,25 +1418,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>103021</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1450,10 +1450,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>516804.1114452771</v>
+        <v>516858.647990866</v>
       </c>
       <c r="R8" t="n">
-        <v>6677465.776451503</v>
+        <v>6677399.468513021</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Riklig på flera klena granlågor  FLD0081 (Calluna AB) NVI</t>
+          <t>Lockläte   FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1527,10 +1527,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>98289777</v>
+        <v>98289712</v>
       </c>
       <c r="B9" t="n">
-        <v>5113</v>
+        <v>89338</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1539,30 +1539,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100526</v>
+        <v>112</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Stjärntagging</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Asterodon ferruginosus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Pat.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1571,10 +1571,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>516991.4707314063</v>
+        <v>516925.1979863503</v>
       </c>
       <c r="R9" t="n">
-        <v>6677510.8489863</v>
+        <v>6677532.892917851</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>2021-11-03</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-11-02</t>
+          <t>2021-11-03</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1621,7 +1621,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Gnagspår   FLD0081 (Calluna AB) NVI</t>
+          <t>Mycket riklig på murken granlåga  FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1648,10 +1648,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>98289792</v>
+        <v>98289729</v>
       </c>
       <c r="B10" t="n">
-        <v>89356</v>
+        <v>95519</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1664,26 +1664,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5447</v>
+        <v>221945</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1692,10 +1692,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>516782.0309047377</v>
+        <v>516881.4125011759</v>
       </c>
       <c r="R10" t="n">
-        <v>6677398.619269138</v>
+        <v>6677533.683840181</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1762,17 +1762,17 @@
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Via Josefina Pehrson</t>
+          <t>Frida Nettelbladt</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>98289707</v>
+        <v>98289700</v>
       </c>
       <c r="B11" t="n">
-        <v>56540</v>
+        <v>95572</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1781,30 +1781,30 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103021</v>
+        <v>221063</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Trådfräken</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Equisetum scirpoides</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Michx.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1813,10 +1813,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>516858.647990866</v>
+        <v>516918.5211616535</v>
       </c>
       <c r="R11" t="n">
-        <v>6677399.468513021</v>
+        <v>6677578.061049111</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Lockläte   FLD0081 (Calluna AB) NVI</t>
+          <t>FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1890,10 +1890,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>98289712</v>
+        <v>98289706</v>
       </c>
       <c r="B12" t="n">
-        <v>89338</v>
+        <v>56540</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1906,21 +1906,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>112</v>
+        <v>103021</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Stjärntagging</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Asterodon ferruginosus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Pat.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1934,10 +1934,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>516925.1979863503</v>
+        <v>516952.9042234386</v>
       </c>
       <c r="R12" t="n">
-        <v>6677532.892917851</v>
+        <v>6677566.299775328</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Mycket riklig på murken granlåga  FLD0081 (Calluna AB) NVI</t>
+          <t>Lockläte   FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2011,10 +2011,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>98289729</v>
+        <v>98289697</v>
       </c>
       <c r="B13" t="n">
-        <v>95519</v>
+        <v>89392</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2023,30 +2023,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>221945</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lycopodium annotinum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>516881.4125011759</v>
+        <v>516809.0866382779</v>
       </c>
       <c r="R13" t="n">
-        <v>6677533.683840181</v>
+        <v>6677465.799325188</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>FLD0081 (Calluna AB) NVI</t>
+          <t>Riklig på flera klena granlågor  FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2132,10 +2132,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>98289700</v>
+        <v>98289788</v>
       </c>
       <c r="B14" t="n">
-        <v>95572</v>
+        <v>5135</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2148,26 +2148,26 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221063</v>
+        <v>105930</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Trådfräken</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Equisetum scirpoides</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Michx.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2176,10 +2176,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>516918.5211616535</v>
+        <v>516791.4681242868</v>
       </c>
       <c r="R14" t="n">
-        <v>6677578.061049111</v>
+        <v>6677510.421505215</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>FLD0081 (Calluna AB) NVI</t>
+          <t>Gnagspår FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2246,17 +2246,17 @@
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Frida Nettelbladt</t>
+          <t>Via Josefina Pehrson</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>98289706</v>
+        <v>98289844</v>
       </c>
       <c r="B15" t="n">
-        <v>56540</v>
+        <v>5113</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2265,30 +2265,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>103021</v>
+        <v>100526</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>516952.9042234386</v>
+        <v>516791.4681242868</v>
       </c>
       <c r="R15" t="n">
-        <v>6677566.299775328</v>
+        <v>6677510.421505215</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2347,7 +2347,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Lockläte   FLD0081 (Calluna AB) NVI</t>
+          <t>Gnagspår   FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2367,17 +2367,17 @@
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Frida Nettelbladt</t>
+          <t>Via Josefina Pehrson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>98289697</v>
+        <v>98289806</v>
       </c>
       <c r="B16" t="n">
-        <v>89392</v>
+        <v>95519</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2386,30 +2386,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>221945</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lycopodium annotinum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>516809.0866382779</v>
+        <v>516814.4085636649</v>
       </c>
       <c r="R16" t="n">
-        <v>6677465.799325188</v>
+        <v>6677498.606166115</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2468,7 +2468,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Riklig på flera klena granlågor  FLD0081 (Calluna AB) NVI</t>
+          <t>FLD0081 (Calluna AB) NVI</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Frida Nettelbladt</t>
+          <t>Via Josefina Pehrson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
